--- a/dev-diaries/diary-person-2.xlsx
+++ b/dev-diaries/diary-person-2.xlsx
@@ -5,32 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friedrich\Projekte\promoki\vorlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friedrich\Projekte\promoki\vorlagen\content\dev-diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="38" windowWidth="15960" windowHeight="17348"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diary" sheetId="1" r:id="rId1"/>
+    <sheet name="Reflection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Studiengang</t>
-  </si>
-  <si>
-    <t>Fachsemester</t>
-  </si>
-  <si>
-    <t>Woche 15</t>
   </si>
   <si>
     <t>Aktueller Zeitaufwand:</t>
@@ -54,22 +49,13 @@
     <t>Beitrag zum Projekt</t>
   </si>
   <si>
-    <t>Zeitaufwand in vollen Stunden</t>
-  </si>
-  <si>
     <t>Erste Infoveranstaltung - Einführung in das Projekt und Vorstellung der Teams sowie erste grobe Einteilung</t>
   </si>
   <si>
     <t>Ablauf, Organisatorisches, Projektziel, Vorstellung der Themen</t>
   </si>
   <si>
-    <t>Projektmodul KI SS 2023</t>
-  </si>
-  <si>
     <t>Max Muster</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Gesamtzeit (bei 8 ECTS):</t>
@@ -81,7 +67,34 @@
     <t>Team:</t>
   </si>
   <si>
-    <t>Team 1</t>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>Zeitaufwand in Dreiviertelstunden</t>
+  </si>
+  <si>
+    <t>Team X</t>
+  </si>
+  <si>
+    <t>Team-Mitglied</t>
+  </si>
+  <si>
+    <t>Anteil</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Projektmodul KI</t>
   </si>
 </sst>
 </file>
@@ -233,7 +246,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -246,16 +259,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,6 +406,879 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reflection!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anteil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5DA2-4371-ADDD-1786EA3ADB0E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5DA2-4371-ADDD-1786EA3ADB0E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5DA2-4371-ADDD-1786EA3ADB0E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5DA2-4371-ADDD-1786EA3ADB0E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Reflection!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reflection!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3428-418B-8F90-3E4B75F17118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1509,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.19921875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1545,8 +2422,8 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="24" t="s">
-        <v>14</v>
+      <c r="A2" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1569,14 +2446,14 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>15</v>
+      <c r="B3" s="22" t="s">
+        <v>11</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>19</v>
+      <c r="C3" s="25" t="s">
+        <v>14</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>20</v>
+      <c r="D3" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1596,8 +2473,8 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>16</v>
+      <c r="B4" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1616,108 +2493,115 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8">
+        <f>SUM(F10:F152)</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <f>H7-F7</f>
+        <v>148</v>
+      </c>
+      <c r="H7" s="8">
+        <f>5*30</f>
+        <v>150</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>17</v>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11">
-        <f>SUM(F11:F153)</f>
-        <v>2</v>
+      <c r="D9" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="G8" s="11">
-        <f>H8-F8</f>
-        <v>238</v>
+      <c r="E9" s="14" t="s">
+        <v>8</v>
       </c>
-      <c r="H8" s="11">
-        <v>240</v>
+      <c r="F9" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1728,67 +2612,55 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
-        <v>6</v>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>7</v>
+      <c r="B10" s="18">
+        <v>44475</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="21">
-        <v>44475</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -1847,7 +2719,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="191.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1866,7 +2738,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="191.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1944,7 +2816,7 @@
     </row>
     <row r="20" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1963,7 +2835,7 @@
     </row>
     <row r="21" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1982,7 +2854,7 @@
     </row>
     <row r="22" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1999,9 +2871,9 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2020,7 +2892,7 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2039,7 +2911,7 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2058,7 +2930,7 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2077,7 +2949,7 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2096,7 +2968,7 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2115,7 +2987,7 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2134,7 +3006,7 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2153,7 +3025,7 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2172,7 +3044,7 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2191,7 +3063,7 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2210,7 +3082,7 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2229,7 +3101,7 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2248,7 +3120,7 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2267,7 +3139,7 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2286,7 +3158,7 @@
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2305,7 +3177,7 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2324,7 +3196,7 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2343,7 +3215,7 @@
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2362,7 +3234,7 @@
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2381,7 +3253,7 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2400,7 +3272,7 @@
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2419,7 +3291,7 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2438,7 +3310,7 @@
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2457,7 +3329,7 @@
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2476,7 +3348,7 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2495,7 +3367,7 @@
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2514,7 +3386,7 @@
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2533,7 +3405,7 @@
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2552,7 +3424,7 @@
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2571,7 +3443,7 @@
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2590,7 +3462,7 @@
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2609,7 +3481,7 @@
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2628,7 +3500,7 @@
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2647,7 +3519,7 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="8"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2666,7 +3538,7 @@
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2685,7 +3557,7 @@
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2704,7 +3576,7 @@
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2723,7 +3595,7 @@
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2742,7 +3614,7 @@
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2761,7 +3633,7 @@
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2780,7 +3652,7 @@
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2799,7 +3671,7 @@
     </row>
     <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2818,7 +3690,7 @@
     </row>
     <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2837,7 +3709,7 @@
     </row>
     <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2856,7 +3728,7 @@
     </row>
     <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2875,7 +3747,7 @@
     </row>
     <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2894,7 +3766,7 @@
     </row>
     <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2913,7 +3785,7 @@
     </row>
     <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2932,7 +3804,7 @@
     </row>
     <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2951,7 +3823,7 @@
     </row>
     <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2970,7 +3842,7 @@
     </row>
     <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2989,7 +3861,7 @@
     </row>
     <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="8"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3008,7 +3880,7 @@
     </row>
     <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3027,7 +3899,7 @@
     </row>
     <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3046,7 +3918,7 @@
     </row>
     <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3065,7 +3937,7 @@
     </row>
     <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3084,7 +3956,7 @@
     </row>
     <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3103,7 +3975,7 @@
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3122,7 +3994,7 @@
     </row>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3141,7 +4013,7 @@
     </row>
     <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="8"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3160,7 +4032,7 @@
     </row>
     <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3179,7 +4051,7 @@
     </row>
     <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3198,7 +4070,7 @@
     </row>
     <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="8"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3217,7 +4089,7 @@
     </row>
     <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3236,7 +4108,7 @@
     </row>
     <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="8"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3255,7 +4127,7 @@
     </row>
     <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3274,7 +4146,7 @@
     </row>
     <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3293,7 +4165,7 @@
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3312,7 +4184,7 @@
     </row>
     <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3331,7 +4203,7 @@
     </row>
     <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3350,7 +4222,7 @@
     </row>
     <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3369,7 +4241,7 @@
     </row>
     <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3388,7 +4260,7 @@
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3407,7 +4279,7 @@
     </row>
     <row r="97" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3426,7 +4298,7 @@
     </row>
     <row r="98" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3445,7 +4317,7 @@
     </row>
     <row r="99" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3464,7 +4336,7 @@
     </row>
     <row r="100" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3483,7 +4355,7 @@
     </row>
     <row r="101" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3502,7 +4374,7 @@
     </row>
     <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3521,7 +4393,7 @@
     </row>
     <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3540,7 +4412,7 @@
     </row>
     <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3559,7 +4431,7 @@
     </row>
     <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3576,9 +4448,9 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4469,25 +5341,6 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
     </row>
-    <row r="153" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4495,4 +5348,63 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="28.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>